--- a/Naive_v_LB_coefandCIs_nonexp.xlsx
+++ b/Naive_v_LB_coefandCIs_nonexp.xlsx
@@ -421,28 +421,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.052477303623118</v>
+        <v>-2.457864986204766</v>
       </c>
       <c r="C2">
-        <v>0.1597122894788931</v>
+        <v>1.505101785554098</v>
       </c>
       <c r="D2">
         <v>0.95</v>
       </c>
       <c r="E2">
-        <v>1.736677627931159</v>
+        <v>-5.433532069797026</v>
       </c>
       <c r="F2">
-        <v>2.368276979315078</v>
+        <v>0.5178020973874942</v>
       </c>
       <c r="G2">
-        <v>12.85109186224749</v>
+        <v>-1.633022437283144</v>
       </c>
       <c r="H2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2">
-        <v>2.38658373435994e-25</v>
+        <v>0.1047113304743925</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1539986037977714</v>
+        <v>0.1482027162083282</v>
       </c>
       <c r="C3">
-        <v>0.06176041726293646</v>
+        <v>0.05081072136403521</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0.03187951198666196</v>
+        <v>0.04774719053710239</v>
       </c>
       <c r="F3">
-        <v>0.2761176956088808</v>
+        <v>0.2486582418795541</v>
       </c>
       <c r="G3">
-        <v>2.493483862684145</v>
+        <v>2.916760719583661</v>
       </c>
       <c r="H3">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I3">
-        <v>0.01383123664833088</v>
+        <v>0.00412098788526742</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -493,28 +493,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.09755367926473711</v>
+        <v>0.321677090103254</v>
       </c>
       <c r="C4">
-        <v>0.0607900654509266</v>
+        <v>0.1605673648500689</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>-0.02264673247147225</v>
+        <v>0.004226784170887954</v>
       </c>
       <c r="F4">
-        <v>0.2177540910009465</v>
+        <v>0.63912739603562</v>
       </c>
       <c r="G4">
-        <v>1.604763517543641</v>
+        <v>2.003377774827547</v>
       </c>
       <c r="H4">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4">
-        <v>0.110831956543635</v>
+        <v>0.04706690311748839</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -529,28 +529,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.03196825473179388</v>
+        <v>-0.03636904344877521</v>
       </c>
       <c r="C5">
-        <v>0.1219899924648291</v>
+        <v>0.1205937617505937</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>-0.2731794989244257</v>
+        <v>-0.2747893886852275</v>
       </c>
       <c r="F5">
-        <v>0.209242989460838</v>
+        <v>0.202051301787677</v>
       </c>
       <c r="G5">
-        <v>-0.2620563710667549</v>
+        <v>-0.3015831243741443</v>
       </c>
       <c r="H5">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I5">
-        <v>0.7936687430291696</v>
+        <v>0.7634173766661856</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -565,28 +565,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.11199191545857</v>
+        <v>-0.01023766044660286</v>
       </c>
       <c r="C6">
-        <v>0.05949613337429805</v>
+        <v>0.00545434219747977</v>
       </c>
       <c r="D6">
         <v>0.95</v>
       </c>
       <c r="E6">
-        <v>-0.2296338307165185</v>
+        <v>-0.02102118797641288</v>
       </c>
       <c r="F6">
-        <v>0.00564999979937858</v>
+        <v>0.0005458670832071463</v>
       </c>
       <c r="G6">
-        <v>-1.882339390931744</v>
+        <v>-1.876974358398942</v>
       </c>
       <c r="H6">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I6">
-        <v>0.06189544943196956</v>
+        <v>0.06260262169165662</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -601,19 +601,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3292339574713667</v>
+        <v>0.3300755483556045</v>
       </c>
       <c r="C7">
-        <v>0.1164022598916538</v>
+        <v>0.1159135140522072</v>
       </c>
       <c r="D7">
         <v>0.95</v>
       </c>
       <c r="E7">
-        <v>0.1646486579130694</v>
+        <v>0.1658420389377302</v>
       </c>
       <c r="F7">
-        <v>0.6583412226140813</v>
+        <v>0.6569496390668539</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7218038805133588</v>
+        <v>0.7172830364434888</v>
       </c>
       <c r="C8">
-        <v>0.04328717882097484</v>
+        <v>0.04271030343524163</v>
       </c>
       <c r="D8">
         <v>0.95</v>
       </c>
       <c r="E8">
-        <v>0.6417589710478904</v>
+        <v>0.6382725068418054</v>
       </c>
       <c r="F8">
-        <v>0.8118325811222109</v>
+        <v>0.8060741279854434</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
